--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11105EA-B806-4727-9BA7-8E1AAFF23BA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF399CD-CE00-4A6A-B417-751C5B30B4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="和谐词" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="1608">
   <si>
     <t>日文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6180,8 +6180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1505</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1505</v>
@@ -6699,98 +6699,98 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>574</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>575</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>574</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>159</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1517</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1525</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>31</v>
+        <v>1517</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6803,15 +6803,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>138</v>
@@ -6819,10 +6819,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -7147,7 +7147,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B70702D8-5F5C-4487-BF4C-4E73C7F40FF9}">
-    <sortState ref="A2:C103">
+    <sortState ref="A2:C62">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -7156,6 +7156,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7318,7 +7319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FF6A35-B2D9-40D3-ACD8-0539001EC083}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -8135,8 +8136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5AF818-D5F7-4CAF-AB32-63493651F54C}">
   <dimension ref="A1:G780"/>
   <sheetViews>
-    <sheetView topLeftCell="A727" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B783" sqref="B783"/>
+    <sheetView tabSelected="1" topLeftCell="A554" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D777" sqref="D777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.2"/>
@@ -13387,9 +13388,7 @@
       <c r="A780" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="B780" s="2" t="s">
-        <v>1518</v>
-      </c>
+      <c r="B780" s="2"/>
       <c r="C780" s="2"/>
     </row>
   </sheetData>
@@ -13409,7 +13408,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
